--- a/minimizacion1.xlsx
+++ b/minimizacion1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UlisesJ.000\Documents\GitHub\Practicas-Teoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0D0DAA-572F-4C4E-B3F8-6C3FAF44BA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC6DAA7-CE09-4275-92F8-965F290A850B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F0BA1EBC-0043-4B27-A6DB-3C1A01CA2FBB}"/>
   </bookViews>
@@ -54,8 +54,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,8 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57421091-D04C-41D8-B83E-6BD0E296E98D}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -415,7 +425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -426,7 +436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -437,7 +447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -447,9 +457,10 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -459,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -472,5 +483,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>